--- a/Data/DataNotYetUploadedToEDI/Raw_GHG/2022/Raw/2022_GHGvials.xlsx
+++ b/Data/DataNotYetUploadedToEDI/Raw_GHG/2022/Raw/2022_GHGvials.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahoun\Desktop\Reservoirs\Data\DataNotYetUploadedToEDI\Raw_GHG\2022\Raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abigaillewis/Desktop/github/Reservoirs/Data/DataNotYetUploadedToEDI/Raw_GHG/2022/Raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC94A9C-F556-4E54-95D8-9A257F9CF587}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872ED266-2368-5441-97EF-31723D6E78C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BVR" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="29">
   <si>
     <t>Reservoir</t>
   </si>
@@ -70,34 +82,43 @@
     <t>Pipe 2</t>
   </si>
   <si>
-    <t>Two 188s!</t>
-  </si>
-  <si>
     <t>AGH Notes</t>
   </si>
   <si>
-    <t>Not in GHG run?</t>
+    <t>Two 188s! Abby: can confirm that both datasheets say 188. But these are from different days. Were they in the same run?</t>
   </si>
   <si>
-    <t>Two 87s listed!</t>
+    <t>Two 87s listed! Abby: listed twice on the datasheet, took a picture</t>
   </si>
   <si>
-    <t>Two 104s listed!</t>
+    <t>weir</t>
   </si>
   <si>
-    <t>Two 104 listed!</t>
+    <t>Not in GHG run? Abby: took a picture. Something is weird about dates here</t>
   </si>
   <si>
-    <t>Not in GHG run? Maybe vial #66?</t>
+    <t>Not in GHG run? Abby: can confirm these are on the datasheet…</t>
   </si>
   <si>
-    <t>Maybe vial #208?</t>
+    <t>Not in GHG run? Abby: can confirm this is on the datasheet</t>
   </si>
   <si>
-    <t>Missing vial; maybe #62?</t>
+    <t>Not in GHG run? Maybe vial #66? Abby: definitely 66!</t>
   </si>
   <si>
-    <t>Missing vial; maybe #41?</t>
+    <t>Maybe vial #208? Abby: that seems right</t>
+  </si>
+  <si>
+    <t>Missing vial; maybe #62? Abby: seems likely</t>
+  </si>
+  <si>
+    <t>Missing vial; maybe #41? Abby: yep, for sure</t>
+  </si>
+  <si>
+    <t>Abby: the numbering seems to have gotten confused. Go with "weir" and "wet" labels--these are on the datasheets</t>
+  </si>
+  <si>
+    <t>Two 104s listed! Abby: can confirm that 104 is listed twice on the datasheet :( no ambiguity that one of them might be 164</t>
   </si>
 </sst>
 </file>
@@ -141,7 +162,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,6 +187,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -179,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -229,6 +256,7 @@
     <xf numFmtId="167" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,16 +477,16 @@
   </sheetPr>
   <dimension ref="A1:G1066"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
-      <selection activeCell="A264" sqref="A264:XFD265"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="G141" sqref="G141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -478,10 +506,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="23">
         <v>108</v>
       </c>
@@ -497,11 +525,14 @@
       <c r="E2" s="23" t="s">
         <v>6</v>
       </c>
+      <c r="F2" s="26" t="s">
+        <v>19</v>
+      </c>
       <c r="G2" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="23">
         <v>131</v>
       </c>
@@ -517,11 +548,14 @@
       <c r="E3" s="23" t="s">
         <v>6</v>
       </c>
+      <c r="F3" s="26" t="s">
+        <v>19</v>
+      </c>
       <c r="G3" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>161</v>
       </c>
@@ -541,7 +575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>74</v>
       </c>
@@ -561,7 +595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>216</v>
       </c>
@@ -581,7 +615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>44</v>
       </c>
@@ -601,7 +635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>135</v>
       </c>
@@ -621,7 +655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>96</v>
       </c>
@@ -641,7 +675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>145</v>
       </c>
@@ -661,7 +695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>186</v>
       </c>
@@ -678,7 +712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>42</v>
       </c>
@@ -695,7 +729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>102</v>
       </c>
@@ -712,7 +746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <v>69</v>
       </c>
@@ -729,7 +763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>132</v>
       </c>
@@ -746,7 +780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
         <v>192</v>
       </c>
@@ -763,7 +797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
         <v>197</v>
       </c>
@@ -780,7 +814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="9">
         <v>71</v>
       </c>
@@ -797,7 +831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
         <v>104</v>
       </c>
@@ -814,7 +848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A20" s="9">
         <v>164</v>
       </c>
@@ -831,7 +865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A21" s="9">
         <v>168</v>
       </c>
@@ -848,7 +882,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A22" s="9">
         <v>125</v>
       </c>
@@ -865,7 +899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A23" s="9">
         <v>191</v>
       </c>
@@ -882,7 +916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A24" s="9">
         <v>73</v>
       </c>
@@ -902,14 +936,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A25" s="9">
         <v>105</v>
       </c>
       <c r="B25" s="14">
         <v>44616.418055555558</v>
       </c>
-      <c r="C25" s="9"/>
+      <c r="C25" s="9">
+        <v>50</v>
+      </c>
       <c r="D25" s="11">
         <v>0.1</v>
       </c>
@@ -918,14 +954,16 @@
       </c>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A26" s="9">
         <v>172</v>
       </c>
       <c r="B26" s="14">
         <v>44616.418055555558</v>
       </c>
-      <c r="C26" s="9"/>
+      <c r="C26" s="9">
+        <v>50</v>
+      </c>
       <c r="D26" s="11">
         <v>0.1</v>
       </c>
@@ -934,13 +972,16 @@
       </c>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A27" s="9">
         <v>22</v>
       </c>
       <c r="B27" s="15">
         <v>44616.426388888889</v>
       </c>
+      <c r="C27" s="9">
+        <v>50</v>
+      </c>
       <c r="D27" s="11">
         <v>3</v>
       </c>
@@ -948,13 +989,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A28" s="9">
         <v>99</v>
       </c>
       <c r="B28" s="15">
         <v>44616.426388888889</v>
       </c>
+      <c r="C28" s="9">
+        <v>50</v>
+      </c>
       <c r="D28" s="11">
         <v>3</v>
       </c>
@@ -962,13 +1006,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A29" s="9">
         <v>130</v>
       </c>
       <c r="B29" s="14">
         <v>44616.4375</v>
       </c>
+      <c r="C29" s="9">
+        <v>50</v>
+      </c>
       <c r="D29" s="11">
         <v>6</v>
       </c>
@@ -976,13 +1023,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A30" s="9">
         <v>206</v>
       </c>
       <c r="B30" s="14">
         <v>44616.4375</v>
       </c>
+      <c r="C30" s="9">
+        <v>50</v>
+      </c>
       <c r="D30" s="11">
         <v>6</v>
       </c>
@@ -990,13 +1040,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A31" s="9">
         <v>66</v>
       </c>
       <c r="B31" s="14">
         <v>44616.446527777778</v>
       </c>
+      <c r="C31" s="9">
+        <v>50</v>
+      </c>
       <c r="D31" s="11">
         <v>9</v>
       </c>
@@ -1004,13 +1057,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
         <v>175</v>
       </c>
       <c r="B32" s="14">
         <v>44616.446527777778</v>
       </c>
+      <c r="C32" s="9">
+        <v>50</v>
+      </c>
       <c r="D32" s="11">
         <v>9</v>
       </c>
@@ -1018,7 +1074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="9">
         <v>137</v>
       </c>
@@ -1035,7 +1091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A34" s="9">
         <v>143</v>
       </c>
@@ -1052,7 +1108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A35" s="9">
         <v>7</v>
       </c>
@@ -1069,7 +1125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="9">
         <v>134</v>
       </c>
@@ -1086,7 +1142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="9">
         <v>133</v>
       </c>
@@ -1103,7 +1159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A38" s="9">
         <v>205</v>
       </c>
@@ -1120,7 +1176,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="9">
         <v>114</v>
       </c>
@@ -1137,7 +1193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="9">
         <v>151</v>
       </c>
@@ -1154,7 +1210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A41" s="9">
         <v>18</v>
       </c>
@@ -1171,7 +1227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A42" s="9">
         <v>21</v>
       </c>
@@ -1188,7 +1244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A43" s="9">
         <v>136</v>
       </c>
@@ -1205,7 +1261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A44" s="9">
         <v>208</v>
       </c>
@@ -1222,7 +1278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A45" s="9">
         <v>27</v>
       </c>
@@ -1239,7 +1295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A46" s="9">
         <v>77</v>
       </c>
@@ -1256,7 +1312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="23">
         <v>51</v>
       </c>
@@ -1276,10 +1332,10 @@
         <v>10</v>
       </c>
       <c r="G47" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="23">
         <v>98</v>
       </c>
@@ -1299,10 +1355,10 @@
         <v>11</v>
       </c>
       <c r="G48" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="23">
         <v>140</v>
       </c>
@@ -1322,10 +1378,10 @@
         <v>11</v>
       </c>
       <c r="G49" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="7" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="4">
         <v>188</v>
       </c>
@@ -1345,10 +1401,10 @@
         <v>10</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="9">
         <v>26</v>
       </c>
@@ -1365,7 +1421,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="9">
         <v>147</v>
       </c>
@@ -1382,7 +1438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="9">
         <v>148</v>
       </c>
@@ -1399,7 +1455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="9">
         <v>179</v>
       </c>
@@ -1416,7 +1472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="9">
         <v>10</v>
       </c>
@@ -1433,7 +1489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="9">
         <v>169</v>
       </c>
@@ -1450,7 +1506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="9">
         <v>24</v>
       </c>
@@ -1467,7 +1523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="9">
         <v>128</v>
       </c>
@@ -1484,7 +1540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="9">
         <v>17</v>
       </c>
@@ -1501,7 +1557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="9">
         <v>131</v>
       </c>
@@ -1518,7 +1574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="9">
         <v>41</v>
       </c>
@@ -1535,7 +1591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="9">
         <v>107</v>
       </c>
@@ -1552,7 +1608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="9">
         <v>59</v>
       </c>
@@ -1569,7 +1625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="9">
         <v>173</v>
       </c>
@@ -1586,7 +1642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="9">
         <v>129</v>
       </c>
@@ -1604,7 +1660,7 @@
       </c>
       <c r="F65" s="9"/>
     </row>
-    <row r="66" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="9">
         <v>163</v>
       </c>
@@ -1622,7 +1678,7 @@
       </c>
       <c r="F66" s="9"/>
     </row>
-    <row r="67" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="9">
         <v>87</v>
       </c>
@@ -1640,7 +1696,7 @@
       </c>
       <c r="F67" s="9"/>
     </row>
-    <row r="68" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="9">
         <v>90</v>
       </c>
@@ -1658,7 +1714,7 @@
       </c>
       <c r="F68" s="9"/>
     </row>
-    <row r="69" spans="1:7" s="7" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="4">
         <v>188</v>
       </c>
@@ -1674,11 +1730,11 @@
       <c r="E69" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G69" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G69" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="9">
         <v>213</v>
       </c>
@@ -1696,7 +1752,7 @@
       </c>
       <c r="F70" s="9"/>
     </row>
-    <row r="71" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="9">
         <v>153</v>
       </c>
@@ -1714,7 +1770,7 @@
       </c>
       <c r="F71" s="9"/>
     </row>
-    <row r="72" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="9">
         <v>159</v>
       </c>
@@ -1732,7 +1788,7 @@
       </c>
       <c r="F72" s="9"/>
     </row>
-    <row r="73" spans="1:7" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="23">
         <v>25</v>
       </c>
@@ -1749,10 +1805,10 @@
         <v>6</v>
       </c>
       <c r="G73" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="9">
         <v>174</v>
       </c>
@@ -1769,7 +1825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="9">
         <v>71</v>
       </c>
@@ -1786,7 +1842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="9">
         <v>81</v>
       </c>
@@ -1803,7 +1859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="9">
         <v>76</v>
       </c>
@@ -1820,7 +1876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="9">
         <v>217</v>
       </c>
@@ -1837,7 +1893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="9">
         <v>112</v>
       </c>
@@ -1854,7 +1910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="9">
         <v>194</v>
       </c>
@@ -1871,7 +1927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="9">
         <v>122</v>
       </c>
@@ -1888,7 +1944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="9">
         <v>160</v>
       </c>
@@ -1905,7 +1961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="9">
         <v>46</v>
       </c>
@@ -1922,7 +1978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="9">
         <v>68</v>
       </c>
@@ -1939,7 +1995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="9">
         <v>141</v>
       </c>
@@ -1956,7 +2012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="9">
         <v>281</v>
       </c>
@@ -1973,7 +2029,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:6" s="32" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" s="32" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="30">
         <v>118</v>
       </c>
@@ -1992,8 +2048,11 @@
       <c r="F87" s="30" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" s="32" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G87" s="32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="32" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="30">
         <v>193</v>
       </c>
@@ -2013,7 +2072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="32" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" s="32" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="30">
         <v>98</v>
       </c>
@@ -2033,7 +2092,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="32" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" s="32" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="30">
         <v>140</v>
       </c>
@@ -2053,7 +2112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="9">
         <v>66</v>
       </c>
@@ -2070,7 +2129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="9">
         <v>68</v>
       </c>
@@ -2087,7 +2146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="9">
         <v>175</v>
       </c>
@@ -2104,7 +2163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="9">
         <v>208</v>
       </c>
@@ -2121,7 +2180,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="9">
         <v>22</v>
       </c>
@@ -2138,7 +2197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="9">
         <v>74</v>
       </c>
@@ -2155,7 +2214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:5" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="17">
         <v>73</v>
       </c>
@@ -2172,7 +2231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:5" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="17">
         <v>173</v>
       </c>
@@ -2189,7 +2248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:5" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="17">
         <v>132</v>
       </c>
@@ -2206,7 +2265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:5" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="17">
         <v>147</v>
       </c>
@@ -2223,7 +2282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:5" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="17">
         <v>12</v>
       </c>
@@ -2240,7 +2299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:5" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="17">
         <v>108</v>
       </c>
@@ -2257,7 +2316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:5" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="17">
         <v>128</v>
       </c>
@@ -2274,7 +2333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:5" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="17">
         <v>190</v>
       </c>
@@ -2291,7 +2350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:5" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="17">
         <v>69</v>
       </c>
@@ -2308,7 +2367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:5" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="17">
         <v>195</v>
       </c>
@@ -2325,7 +2384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:5" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="17">
         <v>72</v>
       </c>
@@ -2342,7 +2401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:5" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="17">
         <v>92</v>
       </c>
@@ -2359,7 +2418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:5" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="17">
         <v>57</v>
       </c>
@@ -2376,7 +2435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:5" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="17">
         <v>149</v>
       </c>
@@ -2393,7 +2452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:5" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="17">
         <v>91</v>
       </c>
@@ -2410,7 +2469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:5" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="17">
         <v>111</v>
       </c>
@@ -2427,7 +2486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="17">
         <v>76</v>
       </c>
@@ -2444,7 +2503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="17">
         <v>141</v>
       </c>
@@ -2461,7 +2520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="17">
         <v>71</v>
       </c>
@@ -2478,7 +2537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="17">
         <v>193</v>
       </c>
@@ -2495,7 +2554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="17">
         <v>112</v>
       </c>
@@ -2512,7 +2571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="17">
         <v>122</v>
       </c>
@@ -2529,7 +2588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="9">
         <v>46</v>
       </c>
@@ -2546,7 +2605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="9">
         <v>68</v>
       </c>
@@ -2563,7 +2622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="9">
         <v>118</v>
       </c>
@@ -2580,7 +2639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="9">
         <v>217</v>
       </c>
@@ -2597,7 +2656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="9">
         <v>98</v>
       </c>
@@ -2614,7 +2673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="9">
         <v>174</v>
       </c>
@@ -2631,7 +2690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="9">
         <v>62</v>
       </c>
@@ -2648,7 +2707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="9">
         <v>140</v>
       </c>
@@ -2665,7 +2724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:6" s="32" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" s="32" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="30">
         <v>88</v>
       </c>
@@ -2685,7 +2744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:6" s="32" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" s="32" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="30">
         <v>138</v>
       </c>
@@ -2705,7 +2764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:7" s="32" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" s="32" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="30">
         <v>7</v>
       </c>
@@ -2725,7 +2784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:7" s="32" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" s="32" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="30">
         <v>134</v>
       </c>
@@ -2745,7 +2804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:7" s="32" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" s="32" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="30">
         <v>20</v>
       </c>
@@ -2765,7 +2824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:7" s="32" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" s="32" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="30">
         <v>77</v>
       </c>
@@ -2785,7 +2844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:7" s="7" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="4">
         <v>87</v>
       </c>
@@ -2805,10 +2864,10 @@
         <v>11</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" s="32" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" s="32" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="30">
         <v>153</v>
       </c>
@@ -2828,7 +2887,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="9">
         <v>179</v>
       </c>
@@ -2845,7 +2904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="9">
         <v>205</v>
       </c>
@@ -2862,7 +2921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="9">
         <v>18</v>
       </c>
@@ -2879,7 +2938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:7" s="7" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="4">
         <v>104</v>
       </c>
@@ -2896,10 +2955,10 @@
         <v>8</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="9">
         <v>102</v>
       </c>
@@ -2916,7 +2975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="9">
         <v>135</v>
       </c>
@@ -2933,7 +2992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:7" s="7" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="4">
         <v>104</v>
       </c>
@@ -2950,10 +3009,10 @@
         <v>8</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="9">
         <v>192</v>
       </c>
@@ -2970,7 +3029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="9">
         <v>10</v>
       </c>
@@ -2987,7 +3046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="9">
         <v>151</v>
       </c>
@@ -3004,7 +3063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="9">
         <v>136</v>
       </c>
@@ -3021,7 +3080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="9">
         <v>90</v>
       </c>
@@ -3038,7 +3097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="9">
         <v>41</v>
       </c>
@@ -3055,7 +3114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="9">
         <v>163</v>
       </c>
@@ -3072,7 +3131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="9">
         <v>130</v>
       </c>
@@ -3089,7 +3148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="9">
         <v>131</v>
       </c>
@@ -3106,7 +3165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="9">
         <v>81</v>
       </c>
@@ -3123,7 +3182,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="9">
         <v>160</v>
       </c>
@@ -3140,7 +3199,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="9">
         <v>182</v>
       </c>
@@ -3157,7 +3216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="9">
         <v>194</v>
       </c>
@@ -3174,7 +3233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="9">
         <v>42</v>
       </c>
@@ -3191,7 +3250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:7" s="7" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="4">
         <v>87</v>
       </c>
@@ -3208,10 +3267,10 @@
         <v>6</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="9">
         <v>59</v>
       </c>
@@ -3228,7 +3287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="9">
         <v>105</v>
       </c>
@@ -3245,7 +3304,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="9">
         <v>161</v>
       </c>
@@ -3262,7 +3321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="9">
         <v>172</v>
       </c>
@@ -3279,7 +3338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="9">
         <v>24</v>
       </c>
@@ -3296,7 +3355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="9">
         <v>203</v>
       </c>
@@ -3313,7 +3372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="9">
         <v>148</v>
       </c>
@@ -3330,7 +3389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="9">
         <v>169</v>
       </c>
@@ -3347,14 +3406,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:7" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="23">
         <v>65</v>
       </c>
       <c r="B165" s="35">
         <v>44686.451388888891</v>
       </c>
-      <c r="C165" s="23">
+      <c r="C165" s="37">
         <v>1</v>
       </c>
       <c r="D165" s="25">
@@ -3364,17 +3423,17 @@
         <v>8</v>
       </c>
       <c r="G165" s="26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="9">
         <v>128</v>
       </c>
       <c r="B166" s="22">
         <v>44686.451388888891</v>
       </c>
-      <c r="C166" s="9">
+      <c r="C166" s="37">
         <v>1</v>
       </c>
       <c r="D166" s="11">
@@ -3384,14 +3443,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="9">
         <v>37</v>
       </c>
       <c r="B167" s="22">
         <v>44686.486111111109</v>
       </c>
-      <c r="C167" s="9">
+      <c r="C167" s="37">
         <v>1</v>
       </c>
       <c r="D167" s="11">
@@ -3401,14 +3460,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="9">
         <v>74</v>
       </c>
       <c r="B168" s="22">
         <v>44686.486111111109</v>
       </c>
-      <c r="C168" s="9">
+      <c r="C168" s="37">
         <v>1</v>
       </c>
       <c r="D168" s="11">
@@ -3418,14 +3477,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="9">
         <v>173</v>
       </c>
       <c r="B169" s="22">
         <v>44686.486111111109</v>
       </c>
-      <c r="C169" s="9">
+      <c r="C169" s="37">
         <v>1</v>
       </c>
       <c r="D169" s="11">
@@ -3435,14 +3494,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="9">
         <v>34</v>
       </c>
       <c r="B170" s="22">
         <v>44686.490972222222</v>
       </c>
-      <c r="C170" s="9">
+      <c r="C170" s="37">
         <v>1</v>
       </c>
       <c r="D170" s="11">
@@ -3452,14 +3511,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="9">
         <v>132</v>
       </c>
       <c r="B171" s="22">
         <v>44686.490972222222</v>
       </c>
-      <c r="C171" s="9">
+      <c r="C171" s="37">
         <v>1</v>
       </c>
       <c r="D171" s="11">
@@ -3469,14 +3528,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="9">
         <v>26</v>
       </c>
       <c r="B172" s="21">
         <v>44690</v>
       </c>
-      <c r="C172" s="9">
+      <c r="C172" s="37">
         <v>1</v>
       </c>
       <c r="D172" s="11">
@@ -3487,14 +3546,14 @@
       </c>
       <c r="F172" s="9"/>
     </row>
-    <row r="173" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="9">
         <v>129</v>
       </c>
       <c r="B173" s="21">
         <v>44690</v>
       </c>
-      <c r="C173" s="9">
+      <c r="C173" s="37">
         <v>1</v>
       </c>
       <c r="D173" s="11">
@@ -3505,14 +3564,14 @@
       </c>
       <c r="F173" s="9"/>
     </row>
-    <row r="174" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="9">
         <v>159</v>
       </c>
       <c r="B174" s="21">
         <v>44690</v>
       </c>
-      <c r="C174" s="9">
+      <c r="C174" s="37">
         <v>1</v>
       </c>
       <c r="D174" s="11">
@@ -3523,14 +3582,14 @@
       </c>
       <c r="F174" s="9"/>
     </row>
-    <row r="175" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="9">
         <v>195</v>
       </c>
       <c r="B175" s="21">
         <v>44690</v>
       </c>
-      <c r="C175" s="9">
+      <c r="C175" s="37">
         <v>1</v>
       </c>
       <c r="D175" s="11">
@@ -3541,7 +3600,7 @@
       </c>
       <c r="F175" s="9"/>
     </row>
-    <row r="176" spans="1:7" s="32" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" s="32" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="30">
         <v>69</v>
       </c>
@@ -3561,7 +3620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:7" s="32" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" s="32" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="30">
         <v>213</v>
       </c>
@@ -3581,7 +3640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:7" s="32" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" s="32" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="30">
         <v>71</v>
       </c>
@@ -3601,7 +3660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:7" s="32" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" s="32" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="30">
         <v>216</v>
       </c>
@@ -3621,14 +3680,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="9">
         <v>27</v>
       </c>
       <c r="B180" s="22">
         <v>44690.463888888888</v>
       </c>
-      <c r="C180" s="9">
+      <c r="C180" s="37">
         <v>1</v>
       </c>
       <c r="D180" s="11">
@@ -3639,14 +3698,14 @@
       </c>
       <c r="F180" s="9"/>
     </row>
-    <row r="181" spans="1:7" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="23">
         <v>268</v>
       </c>
       <c r="B181" s="35">
         <v>44690.463888888888</v>
       </c>
-      <c r="C181" s="23">
+      <c r="C181" s="37">
         <v>1</v>
       </c>
       <c r="D181" s="25">
@@ -3657,10 +3716,10 @@
       </c>
       <c r="F181" s="23"/>
       <c r="G181" s="26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="9">
         <v>137</v>
       </c>
@@ -3678,7 +3737,7 @@
       </c>
       <c r="F182" s="9"/>
     </row>
-    <row r="183" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="9">
         <v>190</v>
       </c>
@@ -3696,7 +3755,7 @@
       </c>
       <c r="F183" s="9"/>
     </row>
-    <row r="184" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="9">
         <v>22</v>
       </c>
@@ -3714,7 +3773,7 @@
       </c>
       <c r="F184" s="9"/>
     </row>
-    <row r="185" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" s="9">
         <v>143</v>
       </c>
@@ -3732,7 +3791,7 @@
       </c>
       <c r="F185" s="9"/>
     </row>
-    <row r="186" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="9">
         <v>79</v>
       </c>
@@ -3749,7 +3808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="9">
         <v>80</v>
       </c>
@@ -3766,7 +3825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="9">
         <v>21</v>
       </c>
@@ -3784,7 +3843,7 @@
       </c>
       <c r="F188" s="9"/>
     </row>
-    <row r="189" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="9">
         <v>177</v>
       </c>
@@ -3802,7 +3861,7 @@
       </c>
       <c r="F189" s="9"/>
     </row>
-    <row r="190" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A190" s="9">
         <v>29</v>
       </c>
@@ -3819,7 +3878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="191" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" s="9">
         <v>166</v>
       </c>
@@ -3836,7 +3895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="192" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" s="9">
         <v>73</v>
       </c>
@@ -3854,7 +3913,7 @@
       </c>
       <c r="F192" s="9"/>
     </row>
-    <row r="193" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="9">
         <v>91</v>
       </c>
@@ -3872,7 +3931,7 @@
       </c>
       <c r="F193" s="9"/>
     </row>
-    <row r="194" spans="1:7" s="7" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A194" s="4">
         <v>171</v>
       </c>
@@ -3889,10 +3948,10 @@
         <v>6</v>
       </c>
       <c r="G194" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A195" s="9">
         <v>198</v>
       </c>
@@ -3909,7 +3968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" s="9">
         <v>121</v>
       </c>
@@ -3926,7 +3985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A197" s="9">
         <v>178</v>
       </c>
@@ -3943,7 +4002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A198" s="9">
         <v>14</v>
       </c>
@@ -3960,7 +4019,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" s="9">
         <v>33</v>
       </c>
@@ -3977,7 +4036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="200" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A200" s="9">
         <v>48</v>
       </c>
@@ -3994,7 +4053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A201" s="9">
         <v>157</v>
       </c>
@@ -4011,7 +4070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A202" s="9">
         <v>85</v>
       </c>
@@ -4028,7 +4087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A203" s="9">
         <v>119</v>
       </c>
@@ -4045,14 +4104,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A204" s="9">
         <v>112</v>
       </c>
       <c r="B204" s="22">
         <v>44698.472222222219</v>
       </c>
-      <c r="C204" s="9">
+      <c r="C204" s="37">
         <v>1</v>
       </c>
       <c r="D204" s="11">
@@ -4062,14 +4121,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A205" s="9">
         <v>131</v>
       </c>
       <c r="B205" s="22">
         <v>44698.472222222219</v>
       </c>
-      <c r="C205" s="9">
+      <c r="C205" s="37">
         <v>1</v>
       </c>
       <c r="D205" s="11">
@@ -4079,14 +4138,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A206" s="9">
         <v>130</v>
       </c>
       <c r="B206" s="22">
         <v>44698.493055555555</v>
       </c>
-      <c r="C206" s="9">
+      <c r="C206" s="37">
         <v>1</v>
       </c>
       <c r="D206" s="11">
@@ -4096,14 +4155,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A207" s="9">
         <v>140</v>
       </c>
       <c r="B207" s="22">
         <v>44698.493055555555</v>
       </c>
-      <c r="C207" s="9">
+      <c r="C207" s="37">
         <v>1</v>
       </c>
       <c r="D207" s="11">
@@ -4113,14 +4172,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A208" s="9">
         <v>15</v>
       </c>
       <c r="B208" s="22">
         <v>44698.5</v>
       </c>
-      <c r="C208" s="9">
+      <c r="C208" s="37">
         <v>1</v>
       </c>
       <c r="D208" s="11">
@@ -4130,14 +4189,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A209" s="9">
         <v>77</v>
       </c>
       <c r="B209" s="22">
         <v>44698.5</v>
       </c>
-      <c r="C209" s="9">
+      <c r="C209" s="37">
         <v>1</v>
       </c>
       <c r="D209" s="11">
@@ -4147,7 +4206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A210" s="9">
         <v>182</v>
       </c>
@@ -4164,7 +4223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A211" s="9">
         <v>205</v>
       </c>
@@ -4181,7 +4240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:7" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A212" s="23">
         <v>52</v>
       </c>
@@ -4198,10 +4257,10 @@
         <v>8</v>
       </c>
       <c r="G212" s="26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A213" s="9">
         <v>154</v>
       </c>
@@ -4218,7 +4277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A214" s="9">
         <v>8</v>
       </c>
@@ -4235,7 +4294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A215" s="9">
         <v>201</v>
       </c>
@@ -4252,7 +4311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A216" s="9">
         <v>89</v>
       </c>
@@ -4269,7 +4328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A217" s="9">
         <v>167</v>
       </c>
@@ -4286,7 +4345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A218" s="9">
         <v>170</v>
       </c>
@@ -4303,7 +4362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A219" s="9">
         <v>204</v>
       </c>
@@ -4320,7 +4379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="220" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A220" s="9">
         <v>76</v>
       </c>
@@ -4337,7 +4396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:7" s="26" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A221" s="23">
         <v>91</v>
       </c>
@@ -4354,10 +4413,10 @@
         <v>6</v>
       </c>
       <c r="G221" s="26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A222" s="9">
         <v>116</v>
       </c>
@@ -4374,7 +4433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A223" s="9">
         <v>185</v>
       </c>
@@ -4391,7 +4450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="224" spans="1:7" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A224" s="9">
         <v>20</v>
       </c>
@@ -4408,7 +4467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="225" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A225" s="9">
         <v>94</v>
       </c>
@@ -4425,7 +4484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A226" s="9">
         <v>82</v>
       </c>
@@ -4442,7 +4501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A227" s="9">
         <v>99</v>
       </c>
@@ -4459,7 +4518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A228" s="9">
         <v>141</v>
       </c>
@@ -4476,7 +4535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A229" s="9">
         <v>158</v>
       </c>
@@ -4493,7 +4552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A230" s="9">
         <v>127</v>
       </c>
@@ -4510,7 +4569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A231" s="9">
         <v>194</v>
       </c>
@@ -4527,7 +4586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="232" spans="1:6" s="32" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" s="32" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A232" s="30">
         <v>46</v>
       </c>
@@ -4547,7 +4606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:6" s="32" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" s="32" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A233" s="30">
         <v>105</v>
       </c>
@@ -4567,7 +4626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:6" s="32" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" s="32" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A234" s="30">
         <v>18</v>
       </c>
@@ -4587,7 +4646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="235" spans="1:6" s="32" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" s="32" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A235" s="30">
         <v>164</v>
       </c>
@@ -4607,7 +4666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A236" s="9">
         <v>7</v>
       </c>
@@ -4624,7 +4683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="237" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A237" s="9">
         <v>153</v>
       </c>
@@ -4641,7 +4700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="238" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A238" s="9">
         <v>49</v>
       </c>
@@ -4658,7 +4717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A239" s="9">
         <v>196</v>
       </c>
@@ -4675,7 +4734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="240" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A240" s="9">
         <v>136</v>
       </c>
@@ -4692,7 +4751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="241" spans="1:5" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A241" s="9">
         <v>172</v>
       </c>
@@ -4709,7 +4768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="242" spans="1:5" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A242" s="9">
         <v>152</v>
       </c>
@@ -4726,7 +4785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="1:5" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A243" s="9">
         <v>215</v>
       </c>
@@ -4743,7 +4802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="244" spans="1:5" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A244" s="9">
         <v>24</v>
       </c>
@@ -4760,7 +4819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="245" spans="1:5" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A245" s="9">
         <v>98</v>
       </c>
@@ -4777,14 +4836,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="1:5" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A246" s="9">
         <v>113</v>
       </c>
       <c r="B246" s="22">
         <v>44704.443749999999</v>
       </c>
-      <c r="C246" s="9">
+      <c r="C246" s="37">
         <v>1</v>
       </c>
       <c r="D246" s="11">
@@ -4794,14 +4853,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="247" spans="1:5" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A247" s="9">
         <v>150</v>
       </c>
       <c r="B247" s="22">
         <v>44704.443749999999</v>
       </c>
-      <c r="C247" s="9">
+      <c r="C247" s="37">
         <v>1</v>
       </c>
       <c r="D247" s="11">
@@ -4811,7 +4870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:5" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A248" s="9">
         <v>38</v>
       </c>
@@ -4828,7 +4887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="249" spans="1:5" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A249" s="9">
         <v>44</v>
       </c>
@@ -4845,14 +4904,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="1:5" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A250" s="9">
         <v>109</v>
       </c>
       <c r="B250" s="22">
         <v>44704.45208333333</v>
       </c>
-      <c r="C250" s="9">
+      <c r="C250" s="37">
         <v>1</v>
       </c>
       <c r="D250" s="11">
@@ -4862,14 +4921,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="251" spans="1:5" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A251" s="9">
         <v>209</v>
       </c>
       <c r="B251" s="22">
         <v>44704.45208333333</v>
       </c>
-      <c r="C251" s="9">
+      <c r="C251" s="37">
         <v>1</v>
       </c>
       <c r="D251" s="11">
@@ -4879,7 +4938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:5" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A252" s="9">
         <v>51</v>
       </c>
@@ -4896,7 +4955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="253" spans="1:5" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A253" s="9">
         <v>102</v>
       </c>
@@ -4913,14 +4972,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="254" spans="1:5" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A254" s="9">
         <v>28</v>
       </c>
       <c r="B254" s="22">
         <v>44704.458333333336</v>
       </c>
-      <c r="C254" s="9">
+      <c r="C254" s="37">
         <v>1</v>
       </c>
       <c r="D254" s="11">
@@ -4930,14 +4989,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:5" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A255" s="9">
         <v>34</v>
       </c>
       <c r="B255" s="22">
         <v>44704.458333333336</v>
       </c>
-      <c r="C255" s="9">
+      <c r="C255" s="37">
         <v>1</v>
       </c>
       <c r="D255" s="11">
@@ -4947,7 +5006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:5" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A256" s="9">
         <v>12</v>
       </c>
@@ -4964,7 +5023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A257" s="9">
         <v>181</v>
       </c>
@@ -4981,7 +5040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A258" s="9">
         <v>57</v>
       </c>
@@ -4998,7 +5057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A259" s="9">
         <v>184</v>
       </c>
@@ -5015,7 +5074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A260" s="9">
         <v>16</v>
       </c>
@@ -5032,7 +5091,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="261" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A261" s="9">
         <v>45</v>
       </c>
@@ -5049,7 +5108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="262" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A262" s="9">
         <v>173</v>
       </c>
@@ -5066,7 +5125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="263" spans="1:6" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A263" s="9">
         <v>180</v>
       </c>
@@ -5083,7 +5142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="264" spans="1:6" s="32" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" s="32" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A264" s="30">
         <v>31</v>
       </c>
@@ -5103,7 +5162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="265" spans="1:6" s="32" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" s="32" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A265" s="30">
         <v>163</v>
       </c>
@@ -5123,2411 +5182,2411 @@
         <v>10</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="D266" s="3"/>
     </row>
-    <row r="267" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="D267" s="3"/>
     </row>
-    <row r="268" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="D268" s="3"/>
     </row>
-    <row r="269" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="D269" s="3"/>
     </row>
-    <row r="270" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="D270" s="3"/>
     </row>
-    <row r="271" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="D271" s="3"/>
     </row>
-    <row r="272" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="D272" s="3"/>
     </row>
-    <row r="273" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D273" s="3"/>
     </row>
-    <row r="274" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D274" s="3"/>
     </row>
-    <row r="275" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D275" s="3"/>
     </row>
-    <row r="276" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D276" s="3"/>
     </row>
-    <row r="277" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D277" s="3"/>
     </row>
-    <row r="278" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D278" s="3"/>
     </row>
-    <row r="279" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D279" s="3"/>
     </row>
-    <row r="280" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D280" s="3"/>
     </row>
-    <row r="281" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D281" s="3"/>
     </row>
-    <row r="282" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D282" s="3"/>
     </row>
-    <row r="283" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D283" s="3"/>
     </row>
-    <row r="284" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D284" s="3"/>
     </row>
-    <row r="285" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D285" s="3"/>
     </row>
-    <row r="286" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D286" s="3"/>
     </row>
-    <row r="287" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D287" s="3"/>
     </row>
-    <row r="288" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D288" s="3"/>
     </row>
-    <row r="289" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D289" s="3"/>
     </row>
-    <row r="290" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D290" s="3"/>
     </row>
-    <row r="291" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D291" s="3"/>
     </row>
-    <row r="292" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D292" s="3"/>
     </row>
-    <row r="293" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D293" s="3"/>
     </row>
-    <row r="294" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D294" s="3"/>
     </row>
-    <row r="295" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D295" s="3"/>
     </row>
-    <row r="296" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D296" s="3"/>
     </row>
-    <row r="297" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D297" s="3"/>
     </row>
-    <row r="298" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D298" s="3"/>
     </row>
-    <row r="299" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D299" s="3"/>
     </row>
-    <row r="300" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D300" s="3"/>
     </row>
-    <row r="301" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D301" s="3"/>
     </row>
-    <row r="302" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D302" s="3"/>
     </row>
-    <row r="303" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D303" s="3"/>
     </row>
-    <row r="304" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D304" s="3"/>
     </row>
-    <row r="305" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D305" s="3"/>
     </row>
-    <row r="306" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D306" s="3"/>
     </row>
-    <row r="307" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D307" s="3"/>
     </row>
-    <row r="308" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D308" s="3"/>
     </row>
-    <row r="309" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D309" s="3"/>
     </row>
-    <row r="310" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D310" s="3"/>
     </row>
-    <row r="311" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D311" s="3"/>
     </row>
-    <row r="312" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D312" s="3"/>
     </row>
-    <row r="313" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D313" s="3"/>
     </row>
-    <row r="314" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D314" s="3"/>
     </row>
-    <row r="315" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D315" s="3"/>
     </row>
-    <row r="316" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D316" s="3"/>
     </row>
-    <row r="317" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D317" s="3"/>
     </row>
-    <row r="318" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D318" s="3"/>
     </row>
-    <row r="319" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D319" s="3"/>
     </row>
-    <row r="320" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D320" s="3"/>
     </row>
-    <row r="321" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D321" s="3"/>
     </row>
-    <row r="322" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D322" s="3"/>
     </row>
-    <row r="323" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D323" s="3"/>
     </row>
-    <row r="324" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D324" s="3"/>
     </row>
-    <row r="325" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D325" s="3"/>
     </row>
-    <row r="326" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D326" s="3"/>
     </row>
-    <row r="327" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D327" s="3"/>
     </row>
-    <row r="328" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D328" s="3"/>
     </row>
-    <row r="329" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D329" s="3"/>
     </row>
-    <row r="330" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D330" s="3"/>
     </row>
-    <row r="331" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D331" s="3"/>
     </row>
-    <row r="332" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D332" s="3"/>
     </row>
-    <row r="333" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D333" s="3"/>
     </row>
-    <row r="334" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D334" s="3"/>
     </row>
-    <row r="335" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D335" s="3"/>
     </row>
-    <row r="336" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D336" s="3"/>
     </row>
-    <row r="337" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D337" s="3"/>
     </row>
-    <row r="338" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D338" s="3"/>
     </row>
-    <row r="339" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D339" s="3"/>
     </row>
-    <row r="340" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D340" s="3"/>
     </row>
-    <row r="341" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D341" s="3"/>
     </row>
-    <row r="342" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D342" s="3"/>
     </row>
-    <row r="343" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D343" s="3"/>
     </row>
-    <row r="344" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D344" s="3"/>
     </row>
-    <row r="345" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D345" s="3"/>
     </row>
-    <row r="346" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D346" s="3"/>
     </row>
-    <row r="347" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D347" s="3"/>
     </row>
-    <row r="348" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D348" s="3"/>
     </row>
-    <row r="349" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D349" s="3"/>
     </row>
-    <row r="350" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D350" s="3"/>
     </row>
-    <row r="351" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="351" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D351" s="3"/>
     </row>
-    <row r="352" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D352" s="3"/>
     </row>
-    <row r="353" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D353" s="3"/>
     </row>
-    <row r="354" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D354" s="3"/>
     </row>
-    <row r="355" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="355" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D355" s="3"/>
     </row>
-    <row r="356" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="356" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D356" s="3"/>
     </row>
-    <row r="357" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="357" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D357" s="3"/>
     </row>
-    <row r="358" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="358" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D358" s="3"/>
     </row>
-    <row r="359" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D359" s="3"/>
     </row>
-    <row r="360" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D360" s="3"/>
     </row>
-    <row r="361" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D361" s="3"/>
     </row>
-    <row r="362" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D362" s="3"/>
     </row>
-    <row r="363" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D363" s="3"/>
     </row>
-    <row r="364" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D364" s="3"/>
     </row>
-    <row r="365" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D365" s="3"/>
     </row>
-    <row r="366" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D366" s="3"/>
     </row>
-    <row r="367" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D367" s="3"/>
     </row>
-    <row r="368" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D368" s="3"/>
     </row>
-    <row r="369" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D369" s="3"/>
     </row>
-    <row r="370" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D370" s="3"/>
     </row>
-    <row r="371" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D371" s="3"/>
     </row>
-    <row r="372" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D372" s="3"/>
     </row>
-    <row r="373" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="373" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D373" s="3"/>
     </row>
-    <row r="374" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D374" s="3"/>
     </row>
-    <row r="375" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D375" s="3"/>
     </row>
-    <row r="376" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D376" s="3"/>
     </row>
-    <row r="377" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D377" s="3"/>
     </row>
-    <row r="378" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D378" s="3"/>
     </row>
-    <row r="379" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D379" s="3"/>
     </row>
-    <row r="380" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="380" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D380" s="3"/>
     </row>
-    <row r="381" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="381" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D381" s="3"/>
     </row>
-    <row r="382" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="382" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D382" s="3"/>
     </row>
-    <row r="383" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="383" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D383" s="3"/>
     </row>
-    <row r="384" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="384" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D384" s="3"/>
     </row>
-    <row r="385" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D385" s="3"/>
     </row>
-    <row r="386" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D386" s="3"/>
     </row>
-    <row r="387" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D387" s="3"/>
     </row>
-    <row r="388" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D388" s="3"/>
     </row>
-    <row r="389" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D389" s="3"/>
     </row>
-    <row r="390" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D390" s="3"/>
     </row>
-    <row r="391" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="391" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D391" s="3"/>
     </row>
-    <row r="392" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="392" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D392" s="3"/>
     </row>
-    <row r="393" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D393" s="3"/>
     </row>
-    <row r="394" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D394" s="3"/>
     </row>
-    <row r="395" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D395" s="3"/>
     </row>
-    <row r="396" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D396" s="3"/>
     </row>
-    <row r="397" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="397" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D397" s="3"/>
     </row>
-    <row r="398" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D398" s="3"/>
     </row>
-    <row r="399" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D399" s="3"/>
     </row>
-    <row r="400" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D400" s="3"/>
     </row>
-    <row r="401" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D401" s="3"/>
     </row>
-    <row r="402" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D402" s="3"/>
     </row>
-    <row r="403" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="403" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D403" s="3"/>
     </row>
-    <row r="404" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="404" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D404" s="3"/>
     </row>
-    <row r="405" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D405" s="3"/>
     </row>
-    <row r="406" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D406" s="3"/>
     </row>
-    <row r="407" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="407" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D407" s="3"/>
     </row>
-    <row r="408" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D408" s="3"/>
     </row>
-    <row r="409" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="409" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D409" s="3"/>
     </row>
-    <row r="410" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="410" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D410" s="3"/>
     </row>
-    <row r="411" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D411" s="3"/>
     </row>
-    <row r="412" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="412" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D412" s="3"/>
     </row>
-    <row r="413" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D413" s="3"/>
     </row>
-    <row r="414" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D414" s="3"/>
     </row>
-    <row r="415" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D415" s="3"/>
     </row>
-    <row r="416" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D416" s="3"/>
     </row>
-    <row r="417" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D417" s="3"/>
     </row>
-    <row r="418" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="418" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D418" s="3"/>
     </row>
-    <row r="419" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D419" s="3"/>
     </row>
-    <row r="420" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D420" s="3"/>
     </row>
-    <row r="421" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D421" s="3"/>
     </row>
-    <row r="422" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D422" s="3"/>
     </row>
-    <row r="423" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D423" s="3"/>
     </row>
-    <row r="424" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D424" s="3"/>
     </row>
-    <row r="425" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D425" s="3"/>
     </row>
-    <row r="426" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D426" s="3"/>
     </row>
-    <row r="427" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D427" s="3"/>
     </row>
-    <row r="428" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D428" s="3"/>
     </row>
-    <row r="429" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D429" s="3"/>
     </row>
-    <row r="430" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D430" s="3"/>
     </row>
-    <row r="431" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D431" s="3"/>
     </row>
-    <row r="432" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D432" s="3"/>
     </row>
-    <row r="433" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D433" s="3"/>
     </row>
-    <row r="434" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D434" s="3"/>
     </row>
-    <row r="435" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D435" s="3"/>
     </row>
-    <row r="436" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D436" s="3"/>
     </row>
-    <row r="437" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D437" s="3"/>
     </row>
-    <row r="438" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D438" s="3"/>
     </row>
-    <row r="439" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="439" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D439" s="3"/>
     </row>
-    <row r="440" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="440" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D440" s="3"/>
     </row>
-    <row r="441" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="441" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D441" s="3"/>
     </row>
-    <row r="442" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="442" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D442" s="3"/>
     </row>
-    <row r="443" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D443" s="3"/>
     </row>
-    <row r="444" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="444" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D444" s="3"/>
     </row>
-    <row r="445" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="445" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D445" s="3"/>
     </row>
-    <row r="446" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D446" s="3"/>
     </row>
-    <row r="447" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D447" s="3"/>
     </row>
-    <row r="448" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D448" s="3"/>
     </row>
-    <row r="449" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D449" s="3"/>
     </row>
-    <row r="450" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="450" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D450" s="3"/>
     </row>
-    <row r="451" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="451" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D451" s="3"/>
     </row>
-    <row r="452" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D452" s="3"/>
     </row>
-    <row r="453" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D453" s="3"/>
     </row>
-    <row r="454" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="454" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D454" s="3"/>
     </row>
-    <row r="455" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D455" s="3"/>
     </row>
-    <row r="456" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D456" s="3"/>
     </row>
-    <row r="457" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="457" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D457" s="3"/>
     </row>
-    <row r="458" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="458" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D458" s="3"/>
     </row>
-    <row r="459" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D459" s="3"/>
     </row>
-    <row r="460" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D460" s="3"/>
     </row>
-    <row r="461" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="461" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D461" s="3"/>
     </row>
-    <row r="462" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="462" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D462" s="3"/>
     </row>
-    <row r="463" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="463" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D463" s="3"/>
     </row>
-    <row r="464" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="464" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D464" s="3"/>
     </row>
-    <row r="465" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="465" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D465" s="3"/>
     </row>
-    <row r="466" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="466" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D466" s="3"/>
     </row>
-    <row r="467" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="467" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D467" s="3"/>
     </row>
-    <row r="468" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="468" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D468" s="3"/>
     </row>
-    <row r="469" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="469" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D469" s="3"/>
     </row>
-    <row r="470" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="470" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D470" s="3"/>
     </row>
-    <row r="471" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="471" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D471" s="3"/>
     </row>
-    <row r="472" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="472" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D472" s="3"/>
     </row>
-    <row r="473" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="473" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D473" s="3"/>
     </row>
-    <row r="474" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="474" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D474" s="3"/>
     </row>
-    <row r="475" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="475" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D475" s="3"/>
     </row>
-    <row r="476" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D476" s="3"/>
     </row>
-    <row r="477" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D477" s="3"/>
     </row>
-    <row r="478" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D478" s="3"/>
     </row>
-    <row r="479" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D479" s="3"/>
     </row>
-    <row r="480" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D480" s="3"/>
     </row>
-    <row r="481" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D481" s="3"/>
     </row>
-    <row r="482" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D482" s="3"/>
     </row>
-    <row r="483" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D483" s="3"/>
     </row>
-    <row r="484" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D484" s="3"/>
     </row>
-    <row r="485" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D485" s="3"/>
     </row>
-    <row r="486" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D486" s="3"/>
     </row>
-    <row r="487" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D487" s="3"/>
     </row>
-    <row r="488" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D488" s="3"/>
     </row>
-    <row r="489" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D489" s="3"/>
     </row>
-    <row r="490" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D490" s="3"/>
     </row>
-    <row r="491" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D491" s="3"/>
     </row>
-    <row r="492" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D492" s="3"/>
     </row>
-    <row r="493" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D493" s="3"/>
     </row>
-    <row r="494" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D494" s="3"/>
     </row>
-    <row r="495" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D495" s="3"/>
     </row>
-    <row r="496" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D496" s="3"/>
     </row>
-    <row r="497" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D497" s="3"/>
     </row>
-    <row r="498" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D498" s="3"/>
     </row>
-    <row r="499" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D499" s="3"/>
     </row>
-    <row r="500" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D500" s="3"/>
     </row>
-    <row r="501" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="501" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D501" s="3"/>
     </row>
-    <row r="502" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D502" s="3"/>
     </row>
-    <row r="503" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D503" s="3"/>
     </row>
-    <row r="504" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D504" s="3"/>
     </row>
-    <row r="505" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D505" s="3"/>
     </row>
-    <row r="506" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D506" s="3"/>
     </row>
-    <row r="507" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D507" s="3"/>
     </row>
-    <row r="508" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D508" s="3"/>
     </row>
-    <row r="509" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D509" s="3"/>
     </row>
-    <row r="510" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D510" s="3"/>
     </row>
-    <row r="511" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D511" s="3"/>
     </row>
-    <row r="512" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D512" s="3"/>
     </row>
-    <row r="513" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D513" s="3"/>
     </row>
-    <row r="514" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D514" s="3"/>
     </row>
-    <row r="515" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D515" s="3"/>
     </row>
-    <row r="516" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D516" s="3"/>
     </row>
-    <row r="517" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D517" s="3"/>
     </row>
-    <row r="518" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D518" s="3"/>
     </row>
-    <row r="519" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D519" s="3"/>
     </row>
-    <row r="520" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D520" s="3"/>
     </row>
-    <row r="521" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D521" s="3"/>
     </row>
-    <row r="522" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D522" s="3"/>
     </row>
-    <row r="523" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D523" s="3"/>
     </row>
-    <row r="524" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D524" s="3"/>
     </row>
-    <row r="525" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D525" s="3"/>
     </row>
-    <row r="526" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D526" s="3"/>
     </row>
-    <row r="527" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D527" s="3"/>
     </row>
-    <row r="528" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D528" s="3"/>
     </row>
-    <row r="529" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D529" s="3"/>
     </row>
-    <row r="530" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D530" s="3"/>
     </row>
-    <row r="531" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D531" s="3"/>
     </row>
-    <row r="532" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D532" s="3"/>
     </row>
-    <row r="533" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D533" s="3"/>
     </row>
-    <row r="534" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D534" s="3"/>
     </row>
-    <row r="535" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D535" s="3"/>
     </row>
-    <row r="536" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D536" s="3"/>
     </row>
-    <row r="537" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D537" s="3"/>
     </row>
-    <row r="538" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D538" s="3"/>
     </row>
-    <row r="539" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D539" s="3"/>
     </row>
-    <row r="540" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D540" s="3"/>
     </row>
-    <row r="541" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D541" s="3"/>
     </row>
-    <row r="542" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D542" s="3"/>
     </row>
-    <row r="543" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D543" s="3"/>
     </row>
-    <row r="544" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D544" s="3"/>
     </row>
-    <row r="545" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D545" s="3"/>
     </row>
-    <row r="546" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D546" s="3"/>
     </row>
-    <row r="547" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D547" s="3"/>
     </row>
-    <row r="548" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D548" s="3"/>
     </row>
-    <row r="549" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D549" s="3"/>
     </row>
-    <row r="550" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D550" s="3"/>
     </row>
-    <row r="551" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D551" s="3"/>
     </row>
-    <row r="552" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D552" s="3"/>
     </row>
-    <row r="553" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D553" s="3"/>
     </row>
-    <row r="554" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D554" s="3"/>
     </row>
-    <row r="555" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D555" s="3"/>
     </row>
-    <row r="556" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D556" s="3"/>
     </row>
-    <row r="557" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D557" s="3"/>
     </row>
-    <row r="558" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D558" s="3"/>
     </row>
-    <row r="559" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D559" s="3"/>
     </row>
-    <row r="560" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D560" s="3"/>
     </row>
-    <row r="561" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D561" s="3"/>
     </row>
-    <row r="562" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D562" s="3"/>
     </row>
-    <row r="563" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D563" s="3"/>
     </row>
-    <row r="564" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D564" s="3"/>
     </row>
-    <row r="565" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D565" s="3"/>
     </row>
-    <row r="566" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D566" s="3"/>
     </row>
-    <row r="567" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D567" s="3"/>
     </row>
-    <row r="568" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D568" s="3"/>
     </row>
-    <row r="569" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D569" s="3"/>
     </row>
-    <row r="570" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D570" s="3"/>
     </row>
-    <row r="571" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D571" s="3"/>
     </row>
-    <row r="572" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D572" s="3"/>
     </row>
-    <row r="573" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D573" s="3"/>
     </row>
-    <row r="574" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D574" s="3"/>
     </row>
-    <row r="575" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D575" s="3"/>
     </row>
-    <row r="576" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D576" s="3"/>
     </row>
-    <row r="577" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D577" s="3"/>
     </row>
-    <row r="578" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D578" s="3"/>
     </row>
-    <row r="579" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D579" s="3"/>
     </row>
-    <row r="580" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D580" s="3"/>
     </row>
-    <row r="581" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D581" s="3"/>
     </row>
-    <row r="582" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D582" s="3"/>
     </row>
-    <row r="583" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D583" s="3"/>
     </row>
-    <row r="584" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D584" s="3"/>
     </row>
-    <row r="585" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D585" s="3"/>
     </row>
-    <row r="586" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D586" s="3"/>
     </row>
-    <row r="587" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D587" s="3"/>
     </row>
-    <row r="588" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D588" s="3"/>
     </row>
-    <row r="589" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D589" s="3"/>
     </row>
-    <row r="590" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D590" s="3"/>
     </row>
-    <row r="591" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D591" s="3"/>
     </row>
-    <row r="592" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D592" s="3"/>
     </row>
-    <row r="593" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D593" s="3"/>
     </row>
-    <row r="594" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D594" s="3"/>
     </row>
-    <row r="595" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D595" s="3"/>
     </row>
-    <row r="596" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D596" s="3"/>
     </row>
-    <row r="597" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D597" s="3"/>
     </row>
-    <row r="598" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D598" s="3"/>
     </row>
-    <row r="599" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D599" s="3"/>
     </row>
-    <row r="600" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D600" s="3"/>
     </row>
-    <row r="601" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D601" s="3"/>
     </row>
-    <row r="602" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D602" s="3"/>
     </row>
-    <row r="603" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D603" s="3"/>
     </row>
-    <row r="604" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D604" s="3"/>
     </row>
-    <row r="605" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D605" s="3"/>
     </row>
-    <row r="606" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D606" s="3"/>
     </row>
-    <row r="607" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D607" s="3"/>
     </row>
-    <row r="608" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D608" s="3"/>
     </row>
-    <row r="609" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="609" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D609" s="3"/>
     </row>
-    <row r="610" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="610" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D610" s="3"/>
     </row>
-    <row r="611" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="611" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D611" s="3"/>
     </row>
-    <row r="612" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="612" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D612" s="3"/>
     </row>
-    <row r="613" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="613" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D613" s="3"/>
     </row>
-    <row r="614" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="614" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D614" s="3"/>
     </row>
-    <row r="615" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="615" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D615" s="3"/>
     </row>
-    <row r="616" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="616" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D616" s="3"/>
     </row>
-    <row r="617" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="617" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D617" s="3"/>
     </row>
-    <row r="618" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="618" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D618" s="3"/>
     </row>
-    <row r="619" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="619" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D619" s="3"/>
     </row>
-    <row r="620" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="620" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D620" s="3"/>
     </row>
-    <row r="621" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D621" s="3"/>
     </row>
-    <row r="622" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="622" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D622" s="3"/>
     </row>
-    <row r="623" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="623" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D623" s="3"/>
     </row>
-    <row r="624" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="624" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D624" s="3"/>
     </row>
-    <row r="625" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="625" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D625" s="3"/>
     </row>
-    <row r="626" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="626" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D626" s="3"/>
     </row>
-    <row r="627" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="627" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D627" s="3"/>
     </row>
-    <row r="628" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="628" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D628" s="3"/>
     </row>
-    <row r="629" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="629" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D629" s="3"/>
     </row>
-    <row r="630" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="630" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D630" s="3"/>
     </row>
-    <row r="631" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="631" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D631" s="3"/>
     </row>
-    <row r="632" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="632" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D632" s="3"/>
     </row>
-    <row r="633" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="633" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D633" s="3"/>
     </row>
-    <row r="634" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="634" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D634" s="3"/>
     </row>
-    <row r="635" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="635" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D635" s="3"/>
     </row>
-    <row r="636" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="636" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D636" s="3"/>
     </row>
-    <row r="637" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="637" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D637" s="3"/>
     </row>
-    <row r="638" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="638" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D638" s="3"/>
     </row>
-    <row r="639" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="639" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D639" s="3"/>
     </row>
-    <row r="640" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="640" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D640" s="3"/>
     </row>
-    <row r="641" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="641" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D641" s="3"/>
     </row>
-    <row r="642" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="642" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D642" s="3"/>
     </row>
-    <row r="643" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="643" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D643" s="3"/>
     </row>
-    <row r="644" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="644" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D644" s="3"/>
     </row>
-    <row r="645" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="645" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D645" s="3"/>
     </row>
-    <row r="646" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="646" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D646" s="3"/>
     </row>
-    <row r="647" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="647" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D647" s="3"/>
     </row>
-    <row r="648" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="648" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D648" s="3"/>
     </row>
-    <row r="649" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="649" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D649" s="3"/>
     </row>
-    <row r="650" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="650" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D650" s="3"/>
     </row>
-    <row r="651" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="651" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D651" s="3"/>
     </row>
-    <row r="652" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="652" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D652" s="3"/>
     </row>
-    <row r="653" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="653" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D653" s="3"/>
     </row>
-    <row r="654" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="654" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D654" s="3"/>
     </row>
-    <row r="655" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="655" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D655" s="3"/>
     </row>
-    <row r="656" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="656" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D656" s="3"/>
     </row>
-    <row r="657" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="657" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D657" s="3"/>
     </row>
-    <row r="658" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="658" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D658" s="3"/>
     </row>
-    <row r="659" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="659" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D659" s="3"/>
     </row>
-    <row r="660" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D660" s="3"/>
     </row>
-    <row r="661" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D661" s="3"/>
     </row>
-    <row r="662" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D662" s="3"/>
     </row>
-    <row r="663" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D663" s="3"/>
     </row>
-    <row r="664" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D664" s="3"/>
     </row>
-    <row r="665" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D665" s="3"/>
     </row>
-    <row r="666" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D666" s="3"/>
     </row>
-    <row r="667" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D667" s="3"/>
     </row>
-    <row r="668" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D668" s="3"/>
     </row>
-    <row r="669" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D669" s="3"/>
     </row>
-    <row r="670" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D670" s="3"/>
     </row>
-    <row r="671" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="671" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D671" s="3"/>
     </row>
-    <row r="672" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="672" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D672" s="3"/>
     </row>
-    <row r="673" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="673" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D673" s="3"/>
     </row>
-    <row r="674" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="674" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D674" s="3"/>
     </row>
-    <row r="675" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="675" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D675" s="3"/>
     </row>
-    <row r="676" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="676" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D676" s="3"/>
     </row>
-    <row r="677" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="677" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D677" s="3"/>
     </row>
-    <row r="678" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="678" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D678" s="3"/>
     </row>
-    <row r="679" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="679" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D679" s="3"/>
     </row>
-    <row r="680" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="680" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D680" s="3"/>
     </row>
-    <row r="681" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="681" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D681" s="3"/>
     </row>
-    <row r="682" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="682" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D682" s="3"/>
     </row>
-    <row r="683" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="683" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D683" s="3"/>
     </row>
-    <row r="684" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="684" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D684" s="3"/>
     </row>
-    <row r="685" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="685" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D685" s="3"/>
     </row>
-    <row r="686" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="686" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D686" s="3"/>
     </row>
-    <row r="687" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="687" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D687" s="3"/>
     </row>
-    <row r="688" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="688" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D688" s="3"/>
     </row>
-    <row r="689" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="689" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D689" s="3"/>
     </row>
-    <row r="690" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="690" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D690" s="3"/>
     </row>
-    <row r="691" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="691" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D691" s="3"/>
     </row>
-    <row r="692" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="692" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D692" s="3"/>
     </row>
-    <row r="693" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="693" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D693" s="3"/>
     </row>
-    <row r="694" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="694" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D694" s="3"/>
     </row>
-    <row r="695" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="695" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D695" s="3"/>
     </row>
-    <row r="696" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="696" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D696" s="3"/>
     </row>
-    <row r="697" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="697" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D697" s="3"/>
     </row>
-    <row r="698" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="698" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D698" s="3"/>
     </row>
-    <row r="699" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="699" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D699" s="3"/>
     </row>
-    <row r="700" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="700" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D700" s="3"/>
     </row>
-    <row r="701" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="701" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D701" s="3"/>
     </row>
-    <row r="702" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="702" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D702" s="3"/>
     </row>
-    <row r="703" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="703" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D703" s="3"/>
     </row>
-    <row r="704" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="704" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D704" s="3"/>
     </row>
-    <row r="705" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="705" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D705" s="3"/>
     </row>
-    <row r="706" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="706" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D706" s="3"/>
     </row>
-    <row r="707" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="707" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D707" s="3"/>
     </row>
-    <row r="708" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="708" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D708" s="3"/>
     </row>
-    <row r="709" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="709" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D709" s="3"/>
     </row>
-    <row r="710" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="710" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D710" s="3"/>
     </row>
-    <row r="711" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="711" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D711" s="3"/>
     </row>
-    <row r="712" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="712" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D712" s="3"/>
     </row>
-    <row r="713" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="713" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D713" s="3"/>
     </row>
-    <row r="714" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="714" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D714" s="3"/>
     </row>
-    <row r="715" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="715" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D715" s="3"/>
     </row>
-    <row r="716" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="716" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D716" s="3"/>
     </row>
-    <row r="717" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="717" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D717" s="3"/>
     </row>
-    <row r="718" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="718" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D718" s="3"/>
     </row>
-    <row r="719" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="719" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D719" s="3"/>
     </row>
-    <row r="720" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="720" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D720" s="3"/>
     </row>
-    <row r="721" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="721" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D721" s="3"/>
     </row>
-    <row r="722" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="722" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D722" s="3"/>
     </row>
-    <row r="723" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="723" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D723" s="3"/>
     </row>
-    <row r="724" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="724" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D724" s="3"/>
     </row>
-    <row r="725" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="725" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D725" s="3"/>
     </row>
-    <row r="726" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="726" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D726" s="3"/>
     </row>
-    <row r="727" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="727" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D727" s="3"/>
     </row>
-    <row r="728" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="728" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D728" s="3"/>
     </row>
-    <row r="729" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="729" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D729" s="3"/>
     </row>
-    <row r="730" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="730" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D730" s="3"/>
     </row>
-    <row r="731" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="731" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D731" s="3"/>
     </row>
-    <row r="732" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="732" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D732" s="3"/>
     </row>
-    <row r="733" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="733" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D733" s="3"/>
     </row>
-    <row r="734" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="734" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D734" s="3"/>
     </row>
-    <row r="735" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="735" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D735" s="3"/>
     </row>
-    <row r="736" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="736" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D736" s="3"/>
     </row>
-    <row r="737" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="737" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D737" s="3"/>
     </row>
-    <row r="738" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="738" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D738" s="3"/>
     </row>
-    <row r="739" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="739" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D739" s="3"/>
     </row>
-    <row r="740" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="740" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D740" s="3"/>
     </row>
-    <row r="741" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="741" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D741" s="3"/>
     </row>
-    <row r="742" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="742" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D742" s="3"/>
     </row>
-    <row r="743" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="743" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D743" s="3"/>
     </row>
-    <row r="744" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="744" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D744" s="3"/>
     </row>
-    <row r="745" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="745" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D745" s="3"/>
     </row>
-    <row r="746" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="746" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D746" s="3"/>
     </row>
-    <row r="747" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="747" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D747" s="3"/>
     </row>
-    <row r="748" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="748" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D748" s="3"/>
     </row>
-    <row r="749" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="749" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D749" s="3"/>
     </row>
-    <row r="750" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="750" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D750" s="3"/>
     </row>
-    <row r="751" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="751" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D751" s="3"/>
     </row>
-    <row r="752" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="752" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D752" s="3"/>
     </row>
-    <row r="753" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="753" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D753" s="3"/>
     </row>
-    <row r="754" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="754" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D754" s="3"/>
     </row>
-    <row r="755" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="755" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D755" s="3"/>
     </row>
-    <row r="756" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="756" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D756" s="3"/>
     </row>
-    <row r="757" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="757" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D757" s="3"/>
     </row>
-    <row r="758" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="758" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D758" s="3"/>
     </row>
-    <row r="759" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="759" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D759" s="3"/>
     </row>
-    <row r="760" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="760" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D760" s="3"/>
     </row>
-    <row r="761" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="761" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D761" s="3"/>
     </row>
-    <row r="762" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="762" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D762" s="3"/>
     </row>
-    <row r="763" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="763" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D763" s="3"/>
     </row>
-    <row r="764" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="764" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D764" s="3"/>
     </row>
-    <row r="765" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="765" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D765" s="3"/>
     </row>
-    <row r="766" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="766" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D766" s="3"/>
     </row>
-    <row r="767" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="767" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D767" s="3"/>
     </row>
-    <row r="768" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="768" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D768" s="3"/>
     </row>
-    <row r="769" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="769" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D769" s="3"/>
     </row>
-    <row r="770" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="770" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D770" s="3"/>
     </row>
-    <row r="771" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="771" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D771" s="3"/>
     </row>
-    <row r="772" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="772" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D772" s="3"/>
     </row>
-    <row r="773" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="773" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D773" s="3"/>
     </row>
-    <row r="774" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="774" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D774" s="3"/>
     </row>
-    <row r="775" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="775" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D775" s="3"/>
     </row>
-    <row r="776" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="776" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D776" s="3"/>
     </row>
-    <row r="777" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="777" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D777" s="3"/>
     </row>
-    <row r="778" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="778" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D778" s="3"/>
     </row>
-    <row r="779" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="779" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D779" s="3"/>
     </row>
-    <row r="780" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="780" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D780" s="3"/>
     </row>
-    <row r="781" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="781" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D781" s="3"/>
     </row>
-    <row r="782" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="782" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D782" s="3"/>
     </row>
-    <row r="783" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="783" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D783" s="3"/>
     </row>
-    <row r="784" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="784" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D784" s="3"/>
     </row>
-    <row r="785" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="785" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D785" s="3"/>
     </row>
-    <row r="786" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="786" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D786" s="3"/>
     </row>
-    <row r="787" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="787" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D787" s="3"/>
     </row>
-    <row r="788" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="788" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D788" s="3"/>
     </row>
-    <row r="789" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="789" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D789" s="3"/>
     </row>
-    <row r="790" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="790" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D790" s="3"/>
     </row>
-    <row r="791" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="791" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D791" s="3"/>
     </row>
-    <row r="792" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="792" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D792" s="3"/>
     </row>
-    <row r="793" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="793" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D793" s="3"/>
     </row>
-    <row r="794" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="794" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D794" s="3"/>
     </row>
-    <row r="795" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="795" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D795" s="3"/>
     </row>
-    <row r="796" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="796" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D796" s="3"/>
     </row>
-    <row r="797" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="797" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D797" s="3"/>
     </row>
-    <row r="798" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="798" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D798" s="3"/>
     </row>
-    <row r="799" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="799" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D799" s="3"/>
     </row>
-    <row r="800" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="800" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D800" s="3"/>
     </row>
-    <row r="801" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="801" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D801" s="3"/>
     </row>
-    <row r="802" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="802" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D802" s="3"/>
     </row>
-    <row r="803" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="803" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D803" s="3"/>
     </row>
-    <row r="804" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="804" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D804" s="3"/>
     </row>
-    <row r="805" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="805" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D805" s="3"/>
     </row>
-    <row r="806" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="806" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D806" s="3"/>
     </row>
-    <row r="807" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="807" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D807" s="3"/>
     </row>
-    <row r="808" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="808" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D808" s="3"/>
     </row>
-    <row r="809" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="809" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D809" s="3"/>
     </row>
-    <row r="810" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="810" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D810" s="3"/>
     </row>
-    <row r="811" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="811" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D811" s="3"/>
     </row>
-    <row r="812" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="812" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D812" s="3"/>
     </row>
-    <row r="813" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="813" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D813" s="3"/>
     </row>
-    <row r="814" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="814" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D814" s="3"/>
     </row>
-    <row r="815" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="815" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D815" s="3"/>
     </row>
-    <row r="816" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="816" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D816" s="3"/>
     </row>
-    <row r="817" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="817" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D817" s="3"/>
     </row>
-    <row r="818" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="818" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D818" s="3"/>
     </row>
-    <row r="819" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="819" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D819" s="3"/>
     </row>
-    <row r="820" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="820" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D820" s="3"/>
     </row>
-    <row r="821" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="821" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D821" s="3"/>
     </row>
-    <row r="822" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="822" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D822" s="3"/>
     </row>
-    <row r="823" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="823" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D823" s="3"/>
     </row>
-    <row r="824" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="824" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D824" s="3"/>
     </row>
-    <row r="825" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="825" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D825" s="3"/>
     </row>
-    <row r="826" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="826" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D826" s="3"/>
     </row>
-    <row r="827" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="827" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D827" s="3"/>
     </row>
-    <row r="828" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="828" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D828" s="3"/>
     </row>
-    <row r="829" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="829" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D829" s="3"/>
     </row>
-    <row r="830" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="830" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D830" s="3"/>
     </row>
-    <row r="831" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="831" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D831" s="3"/>
     </row>
-    <row r="832" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="832" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D832" s="3"/>
     </row>
-    <row r="833" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="833" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D833" s="3"/>
     </row>
-    <row r="834" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="834" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D834" s="3"/>
     </row>
-    <row r="835" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="835" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D835" s="3"/>
     </row>
-    <row r="836" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="836" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D836" s="3"/>
     </row>
-    <row r="837" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="837" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D837" s="3"/>
     </row>
-    <row r="838" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="838" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D838" s="3"/>
     </row>
-    <row r="839" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="839" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D839" s="3"/>
     </row>
-    <row r="840" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="840" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D840" s="3"/>
     </row>
-    <row r="841" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="841" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D841" s="3"/>
     </row>
-    <row r="842" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="842" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D842" s="3"/>
     </row>
-    <row r="843" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="843" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D843" s="3"/>
     </row>
-    <row r="844" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="844" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D844" s="3"/>
     </row>
-    <row r="845" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="845" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D845" s="3"/>
     </row>
-    <row r="846" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="846" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D846" s="3"/>
     </row>
-    <row r="847" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="847" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D847" s="3"/>
     </row>
-    <row r="848" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="848" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D848" s="3"/>
     </row>
-    <row r="849" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="849" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D849" s="3"/>
     </row>
-    <row r="850" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="850" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D850" s="3"/>
     </row>
-    <row r="851" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="851" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D851" s="3"/>
     </row>
-    <row r="852" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="852" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D852" s="3"/>
     </row>
-    <row r="853" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="853" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D853" s="3"/>
     </row>
-    <row r="854" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="854" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D854" s="3"/>
     </row>
-    <row r="855" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="855" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D855" s="3"/>
     </row>
-    <row r="856" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="856" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D856" s="3"/>
     </row>
-    <row r="857" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="857" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D857" s="3"/>
     </row>
-    <row r="858" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="858" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D858" s="3"/>
     </row>
-    <row r="859" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="859" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D859" s="3"/>
     </row>
-    <row r="860" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="860" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D860" s="3"/>
     </row>
-    <row r="861" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="861" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D861" s="3"/>
     </row>
-    <row r="862" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="862" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D862" s="3"/>
     </row>
-    <row r="863" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="863" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D863" s="3"/>
     </row>
-    <row r="864" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="864" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D864" s="3"/>
     </row>
-    <row r="865" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="865" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D865" s="3"/>
     </row>
-    <row r="866" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="866" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D866" s="3"/>
     </row>
-    <row r="867" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="867" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D867" s="3"/>
     </row>
-    <row r="868" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="868" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D868" s="3"/>
     </row>
-    <row r="869" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="869" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D869" s="3"/>
     </row>
-    <row r="870" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="870" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D870" s="3"/>
     </row>
-    <row r="871" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="871" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D871" s="3"/>
     </row>
-    <row r="872" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="872" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D872" s="3"/>
     </row>
-    <row r="873" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="873" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D873" s="3"/>
     </row>
-    <row r="874" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="874" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D874" s="3"/>
     </row>
-    <row r="875" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="875" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D875" s="3"/>
     </row>
-    <row r="876" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="876" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D876" s="3"/>
     </row>
-    <row r="877" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="877" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D877" s="3"/>
     </row>
-    <row r="878" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="878" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D878" s="3"/>
     </row>
-    <row r="879" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="879" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D879" s="3"/>
     </row>
-    <row r="880" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="880" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D880" s="3"/>
     </row>
-    <row r="881" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="881" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D881" s="3"/>
     </row>
-    <row r="882" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="882" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D882" s="3"/>
     </row>
-    <row r="883" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="883" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D883" s="3"/>
     </row>
-    <row r="884" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="884" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D884" s="3"/>
     </row>
-    <row r="885" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="885" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D885" s="3"/>
     </row>
-    <row r="886" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="886" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D886" s="3"/>
     </row>
-    <row r="887" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="887" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D887" s="3"/>
     </row>
-    <row r="888" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="888" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D888" s="3"/>
     </row>
-    <row r="889" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="889" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D889" s="3"/>
     </row>
-    <row r="890" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="890" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D890" s="3"/>
     </row>
-    <row r="891" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="891" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D891" s="3"/>
     </row>
-    <row r="892" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="892" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D892" s="3"/>
     </row>
-    <row r="893" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="893" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D893" s="3"/>
     </row>
-    <row r="894" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="894" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D894" s="3"/>
     </row>
-    <row r="895" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="895" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D895" s="3"/>
     </row>
-    <row r="896" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="896" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D896" s="3"/>
     </row>
-    <row r="897" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="897" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D897" s="3"/>
     </row>
-    <row r="898" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="898" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D898" s="3"/>
     </row>
-    <row r="899" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="899" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D899" s="3"/>
     </row>
-    <row r="900" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="900" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D900" s="3"/>
     </row>
-    <row r="901" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="901" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D901" s="3"/>
     </row>
-    <row r="902" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="902" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D902" s="3"/>
     </row>
-    <row r="903" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="903" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D903" s="3"/>
     </row>
-    <row r="904" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="904" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D904" s="3"/>
     </row>
-    <row r="905" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="905" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D905" s="3"/>
     </row>
-    <row r="906" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="906" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D906" s="3"/>
     </row>
-    <row r="907" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="907" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D907" s="3"/>
     </row>
-    <row r="908" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="908" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D908" s="3"/>
     </row>
-    <row r="909" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="909" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D909" s="3"/>
     </row>
-    <row r="910" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="910" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D910" s="3"/>
     </row>
-    <row r="911" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="911" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D911" s="3"/>
     </row>
-    <row r="912" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="912" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D912" s="3"/>
     </row>
-    <row r="913" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="913" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D913" s="3"/>
     </row>
-    <row r="914" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="914" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D914" s="3"/>
     </row>
-    <row r="915" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="915" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D915" s="3"/>
     </row>
-    <row r="916" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="916" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D916" s="3"/>
     </row>
-    <row r="917" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="917" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D917" s="3"/>
     </row>
-    <row r="918" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="918" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D918" s="3"/>
     </row>
-    <row r="919" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="919" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D919" s="3"/>
     </row>
-    <row r="920" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="920" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D920" s="3"/>
     </row>
-    <row r="921" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="921" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D921" s="3"/>
     </row>
-    <row r="922" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="922" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D922" s="3"/>
     </row>
-    <row r="923" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="923" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D923" s="3"/>
     </row>
-    <row r="924" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="924" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D924" s="3"/>
     </row>
-    <row r="925" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="925" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D925" s="3"/>
     </row>
-    <row r="926" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="926" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D926" s="3"/>
     </row>
-    <row r="927" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="927" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D927" s="3"/>
     </row>
-    <row r="928" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="928" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D928" s="3"/>
     </row>
-    <row r="929" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="929" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D929" s="3"/>
     </row>
-    <row r="930" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="930" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D930" s="3"/>
     </row>
-    <row r="931" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="931" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D931" s="3"/>
     </row>
-    <row r="932" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="932" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D932" s="3"/>
     </row>
-    <row r="933" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="933" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D933" s="3"/>
     </row>
-    <row r="934" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="934" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D934" s="3"/>
     </row>
-    <row r="935" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="935" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D935" s="3"/>
     </row>
-    <row r="936" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="936" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D936" s="3"/>
     </row>
-    <row r="937" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="937" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D937" s="3"/>
     </row>
-    <row r="938" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="938" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D938" s="3"/>
     </row>
-    <row r="939" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="939" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D939" s="3"/>
     </row>
-    <row r="940" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="940" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D940" s="3"/>
     </row>
-    <row r="941" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="941" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D941" s="3"/>
     </row>
-    <row r="942" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="942" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D942" s="3"/>
     </row>
-    <row r="943" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="943" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D943" s="3"/>
     </row>
-    <row r="944" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="944" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D944" s="3"/>
     </row>
-    <row r="945" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="945" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D945" s="3"/>
     </row>
-    <row r="946" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="946" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D946" s="3"/>
     </row>
-    <row r="947" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="947" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D947" s="3"/>
     </row>
-    <row r="948" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="948" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D948" s="3"/>
     </row>
-    <row r="949" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="949" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D949" s="3"/>
     </row>
-    <row r="950" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="950" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D950" s="3"/>
     </row>
-    <row r="951" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="951" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D951" s="3"/>
     </row>
-    <row r="952" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="952" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D952" s="3"/>
     </row>
-    <row r="953" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="953" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D953" s="3"/>
     </row>
-    <row r="954" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="954" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D954" s="3"/>
     </row>
-    <row r="955" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="955" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D955" s="3"/>
     </row>
-    <row r="956" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="956" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D956" s="3"/>
     </row>
-    <row r="957" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="957" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D957" s="3"/>
     </row>
-    <row r="958" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="958" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D958" s="3"/>
     </row>
-    <row r="959" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="959" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D959" s="3"/>
     </row>
-    <row r="960" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="960" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D960" s="3"/>
     </row>
-    <row r="961" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="961" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D961" s="3"/>
     </row>
-    <row r="962" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="962" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D962" s="3"/>
     </row>
-    <row r="963" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="963" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D963" s="3"/>
     </row>
-    <row r="964" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="964" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D964" s="3"/>
     </row>
-    <row r="965" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="965" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D965" s="3"/>
     </row>
-    <row r="966" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="966" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D966" s="3"/>
     </row>
-    <row r="967" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="967" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D967" s="3"/>
     </row>
-    <row r="968" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="968" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D968" s="3"/>
     </row>
-    <row r="969" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="969" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D969" s="3"/>
     </row>
-    <row r="970" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="970" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D970" s="3"/>
     </row>
-    <row r="971" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="971" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D971" s="3"/>
     </row>
-    <row r="972" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="972" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D972" s="3"/>
     </row>
-    <row r="973" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="973" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D973" s="3"/>
     </row>
-    <row r="974" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="974" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D974" s="3"/>
     </row>
-    <row r="975" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="975" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D975" s="3"/>
     </row>
-    <row r="976" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="976" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D976" s="3"/>
     </row>
-    <row r="977" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="977" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D977" s="3"/>
     </row>
-    <row r="978" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="978" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D978" s="3"/>
     </row>
-    <row r="979" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="979" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D979" s="3"/>
     </row>
-    <row r="980" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="980" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D980" s="3"/>
     </row>
-    <row r="981" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="981" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D981" s="3"/>
     </row>
-    <row r="982" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="982" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D982" s="3"/>
     </row>
-    <row r="983" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="983" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D983" s="3"/>
     </row>
-    <row r="984" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="984" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D984" s="3"/>
     </row>
-    <row r="985" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="985" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D985" s="3"/>
     </row>
-    <row r="986" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="986" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D986" s="3"/>
     </row>
-    <row r="987" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="987" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D987" s="3"/>
     </row>
-    <row r="988" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="988" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D988" s="3"/>
     </row>
-    <row r="989" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="989" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D989" s="3"/>
     </row>
-    <row r="990" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="990" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D990" s="3"/>
     </row>
-    <row r="991" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="991" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D991" s="3"/>
     </row>
-    <row r="992" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="992" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D992" s="3"/>
     </row>
-    <row r="993" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="993" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D993" s="3"/>
     </row>
-    <row r="994" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="994" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D994" s="3"/>
     </row>
-    <row r="995" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="995" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D995" s="3"/>
     </row>
-    <row r="996" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="996" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D996" s="3"/>
     </row>
-    <row r="997" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="997" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D997" s="3"/>
     </row>
-    <row r="998" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="998" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D998" s="3"/>
     </row>
-    <row r="999" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="999" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D999" s="3"/>
     </row>
-    <row r="1000" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1000" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1000" s="3"/>
     </row>
-    <row r="1001" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1001" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1001" s="3"/>
     </row>
-    <row r="1002" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1002" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1002" s="3"/>
     </row>
-    <row r="1003" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1003" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1003" s="3"/>
     </row>
-    <row r="1004" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1004" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1004" s="3"/>
     </row>
-    <row r="1005" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1005" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1005" s="3"/>
     </row>
-    <row r="1006" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1006" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1006" s="3"/>
     </row>
-    <row r="1007" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1007" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1007" s="3"/>
     </row>
-    <row r="1008" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1008" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1008" s="3"/>
     </row>
-    <row r="1009" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1009" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1009" s="3"/>
     </row>
-    <row r="1010" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1010" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1010" s="3"/>
     </row>
-    <row r="1011" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1011" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1011" s="3"/>
     </row>
-    <row r="1012" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1012" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1012" s="3"/>
     </row>
-    <row r="1013" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1013" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1013" s="3"/>
     </row>
-    <row r="1014" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1014" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1014" s="3"/>
     </row>
-    <row r="1015" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1015" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1015" s="3"/>
     </row>
-    <row r="1016" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1016" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1016" s="3"/>
     </row>
-    <row r="1017" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1017" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1017" s="3"/>
     </row>
-    <row r="1018" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1018" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1018" s="3"/>
     </row>
-    <row r="1019" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1019" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1019" s="3"/>
     </row>
-    <row r="1020" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1020" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1020" s="3"/>
     </row>
-    <row r="1021" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1021" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1021" s="3"/>
     </row>
-    <row r="1022" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1022" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1022" s="3"/>
     </row>
-    <row r="1023" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1023" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1023" s="3"/>
     </row>
-    <row r="1024" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1024" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1024" s="3"/>
     </row>
-    <row r="1025" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1025" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1025" s="3"/>
     </row>
-    <row r="1026" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1026" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1026" s="3"/>
     </row>
-    <row r="1027" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1027" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1027" s="3"/>
     </row>
-    <row r="1028" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1028" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1028" s="3"/>
     </row>
-    <row r="1029" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1029" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1029" s="3"/>
     </row>
-    <row r="1030" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1030" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1030" s="3"/>
     </row>
-    <row r="1031" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1031" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1031" s="3"/>
     </row>
-    <row r="1032" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1032" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1032" s="3"/>
     </row>
-    <row r="1033" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1033" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1033" s="3"/>
     </row>
-    <row r="1034" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1034" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1034" s="3"/>
     </row>
-    <row r="1035" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1035" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1035" s="3"/>
     </row>
-    <row r="1036" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1036" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1036" s="3"/>
     </row>
-    <row r="1037" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1037" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1037" s="3"/>
     </row>
-    <row r="1038" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1038" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1038" s="3"/>
     </row>
-    <row r="1039" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1039" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1039" s="3"/>
     </row>
-    <row r="1040" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1040" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1040" s="3"/>
     </row>
-    <row r="1041" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1041" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1041" s="3"/>
     </row>
-    <row r="1042" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1042" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1042" s="3"/>
     </row>
-    <row r="1043" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1043" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1043" s="3"/>
     </row>
-    <row r="1044" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1044" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1044" s="3"/>
     </row>
-    <row r="1045" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1045" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1045" s="3"/>
     </row>
-    <row r="1046" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1046" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1046" s="3"/>
     </row>
-    <row r="1047" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1047" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1047" s="3"/>
     </row>
-    <row r="1048" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1048" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1048" s="3"/>
     </row>
-    <row r="1049" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1049" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1049" s="3"/>
     </row>
-    <row r="1050" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1050" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1050" s="3"/>
     </row>
-    <row r="1051" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1051" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1051" s="3"/>
     </row>
-    <row r="1052" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1052" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1052" s="3"/>
     </row>
-    <row r="1053" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1053" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1053" s="3"/>
     </row>
-    <row r="1054" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1054" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1054" s="3"/>
     </row>
-    <row r="1055" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1055" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1055" s="3"/>
     </row>
-    <row r="1056" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1056" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1056" s="3"/>
     </row>
-    <row r="1057" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1057" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1057" s="3"/>
     </row>
-    <row r="1058" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1058" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1058" s="3"/>
     </row>
-    <row r="1059" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1059" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1059" s="3"/>
     </row>
-    <row r="1060" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1060" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1060" s="3"/>
     </row>
-    <row r="1061" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1061" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1061" s="3"/>
     </row>
-    <row r="1062" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1062" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1062" s="3"/>
     </row>
-    <row r="1063" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1063" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1063" s="3"/>
     </row>
-    <row r="1064" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1064" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1064" s="3"/>
     </row>
-    <row r="1065" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1065" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1065" s="3"/>
     </row>
-    <row r="1066" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1066" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D1066" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="A3:F265">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F265">
     <sortCondition ref="B3:B265"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
